--- a/apscale_nanopore/default_settings_nd.xlsx
+++ b/apscale_nanopore/default_settings_nd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillmacher/Documents/GitHub/apscale_nanopore/apscale_nanopore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D962D90-AF99-1840-B96D-26AD21764268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1B86F-B56F-9541-9014-B17E63153495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="3880" windowWidth="35880" windowHeight="22280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21800" yWindow="3740" windowWidth="35880" windowHeight="22280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demultiplexing" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>centroid</t>
+  </si>
+  <si>
+    <t>Choose clustering output format</t>
+  </si>
+  <si>
+    <t>representative</t>
   </si>
 </sst>
 </file>
@@ -601,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,30 +775,30 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -797,19 +806,36 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{0F4060DD-8D41-0C47-9C3A-11EC354DBABD}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{0F4060DD-8D41-0C47-9C3A-11EC354DBABD}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{A5357786-DA2E-3E49-97D4-B64B59B780E0}">
       <formula1>"ESVs, Swarms, denoised OTUs, Swarm OTUs"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{D0C56B4A-6F05-6042-8AD7-6BEEDD0C9CFB}">
+      <formula1>"centroid, consensus"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
